--- a/Excel/FirstStage.xlsx
+++ b/Excel/FirstStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoitu\Documents\ゲーム制作\2024前期\貧鉄\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71338207-EAF1-4EA9-8193-4B3AEE06925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F4974E-C91B-40C3-A365-EB3911178C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,7 +130,209 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFCC9900"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFCC9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFFC000"/>
@@ -555,16 +757,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -749,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -934,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1119,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -1304,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -1312,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1489,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -1584,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="2">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AG6" s="2">
         <v>0</v>
@@ -1674,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -1859,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -2044,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2229,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -2414,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -2599,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -2784,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -2969,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -3154,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -3339,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -3527,32 +3729,38 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A1:BI16">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>30</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
       <formula>31</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>20</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>13</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>51</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/FirstStage.xlsx
+++ b/Excel/FirstStage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0DEA2B-91D3-439B-95F7-7081FCA3A6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F553BC-5250-43F2-AC16-6A3432EB335E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{288AF6AD-7F79-445E-8733-990547842CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,16 +541,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BI16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="100" width="3.09765625" customWidth="1"/>
+    <col min="1" max="100" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="1" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:61" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>20</v>
       </c>
@@ -920,7 +920,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>20</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>13</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>13</v>
       </c>
@@ -2328,11 +2328,11 @@
         <v>0</v>
       </c>
       <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
         <v>51</v>
       </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
       <c r="AN10">
         <v>13</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>13</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>13</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -2955,7 +2955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>10</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>20</v>
       </c>
@@ -3512,7 +3512,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:BI14 A15:Y16 Z15:BI15 AK16:BI16 Z16:AF16">
+  <conditionalFormatting sqref="Z15:BI15 A15:Y16 Z16:AF16 AK16:BI16 A1:BI14">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>51</formula>
     </cfRule>
